--- a/Collection of Fiddle Tunes.xlsx
+++ b/Collection of Fiddle Tunes.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1787" uniqueCount="651">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1787" uniqueCount="650">
   <si>
     <t xml:space="preserve">1 Tune Title</t>
   </si>
@@ -98,9 +98,6 @@
   </si>
   <si>
     <t xml:space="preserve">Mark Campbell / Joe Ayers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Angeline the Baker / Coon Dog</t>
   </si>
   <si>
     <t xml:space="preserve">Eck Dunford / J.W. "Babe" Spangler </t>
@@ -2094,23 +2091,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="00FFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
 </styleSheet>
 </file>
 
@@ -2121,8 +2101,8 @@
   </sheetPr>
   <dimension ref="A1:G434"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A181" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A196" activeCellId="0" sqref="A196"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A412" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A437" activeCellId="0" sqref="A437"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.34375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2245,10 +2225,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>22</v>
@@ -2259,10 +2239,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>22</v>
@@ -2273,10 +2253,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>15</v>
@@ -2287,10 +2267,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>22</v>
@@ -2301,13 +2281,13 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>12</v>
@@ -2315,10 +2295,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>15</v>
@@ -2329,10 +2309,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>22</v>
@@ -2343,7 +2323,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>21</v>
@@ -2357,13 +2337,13 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>9</v>
@@ -2375,10 +2355,10 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>15</v>
@@ -2389,10 +2369,10 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>15</v>
@@ -2403,13 +2383,13 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="C19" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>9</v>
@@ -2417,13 +2397,13 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="C20" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>9</v>
@@ -2431,13 +2411,13 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="C21" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>12</v>
@@ -2445,10 +2425,10 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>22</v>
@@ -2459,13 +2439,13 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="C23" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>9</v>
@@ -2473,27 +2453,27 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="C24" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="D24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>22</v>
@@ -2507,10 +2487,10 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>8</v>
@@ -2521,10 +2501,10 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>15</v>
@@ -2535,10 +2515,10 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>8</v>
@@ -2549,10 +2529,10 @@
     </row>
     <row r="29" customFormat="false" ht="23.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B29" s="5" t="s">
         <v>72</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>73</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>15</v>
@@ -2563,10 +2543,10 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>15</v>
@@ -2577,13 +2557,13 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="C31" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>9</v>
@@ -2591,13 +2571,13 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="C32" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>12</v>
@@ -2605,13 +2585,13 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="C33" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>9</v>
@@ -2619,13 +2599,13 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>9</v>
@@ -2633,10 +2613,10 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>15</v>
@@ -2647,10 +2627,10 @@
     </row>
     <row r="36" customFormat="false" ht="23.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>85</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>15</v>
@@ -2661,13 +2641,13 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="C37" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>9</v>
@@ -2675,10 +2655,10 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>15</v>
@@ -2689,13 +2669,13 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="C39" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>9</v>
@@ -2703,10 +2683,10 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>94</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>22</v>
@@ -2717,13 +2697,13 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>12</v>
@@ -2731,24 +2711,24 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="C42" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>22</v>
@@ -2759,10 +2739,10 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>22</v>
@@ -2773,41 +2753,41 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>101</v>
-      </c>
       <c r="C45" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="C46" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>12</v>
@@ -2815,10 +2795,10 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>15</v>
@@ -2832,13 +2812,13 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B49" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B49" s="5" t="s">
-        <v>107</v>
-      </c>
       <c r="C49" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>12</v>
@@ -2846,10 +2826,10 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>8</v>
@@ -2860,10 +2840,10 @@
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>15</v>
@@ -2874,10 +2854,10 @@
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>15</v>
@@ -2888,10 +2868,10 @@
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>15</v>
@@ -2902,10 +2882,10 @@
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>15</v>
@@ -2916,13 +2896,13 @@
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>116</v>
-      </c>
       <c r="C55" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>9</v>
@@ -2930,10 +2910,10 @@
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>15</v>
@@ -2944,10 +2924,10 @@
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>22</v>
@@ -2958,24 +2938,24 @@
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D58" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>22</v>
@@ -2984,12 +2964,12 @@
         <v>23</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B60" s="5" t="s">
         <v>14</v>
@@ -3003,13 +2983,13 @@
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B61" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="B61" s="5" t="s">
-        <v>125</v>
-      </c>
       <c r="C61" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>12</v>
@@ -3017,30 +2997,30 @@
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B63" s="1" t="s">
-        <v>127</v>
-      </c>
       <c r="C63" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>12</v>
@@ -3048,27 +3028,27 @@
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>130</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>22</v>
@@ -3079,13 +3059,13 @@
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>132</v>
-      </c>
       <c r="C66" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>12</v>
@@ -3093,7 +3073,7 @@
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>21</v>
@@ -3107,13 +3087,13 @@
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>9</v>
@@ -3121,30 +3101,30 @@
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B69" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="B69" s="5" t="s">
-        <v>136</v>
-      </c>
       <c r="C69" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>9</v>
@@ -3152,13 +3132,13 @@
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>9</v>
@@ -3166,10 +3146,10 @@
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B72" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>140</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>22</v>
@@ -3180,13 +3160,13 @@
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>9</v>
@@ -3194,13 +3174,13 @@
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>12</v>
@@ -3208,10 +3188,10 @@
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>22</v>
@@ -3222,10 +3202,10 @@
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B76" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>145</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>22</v>
@@ -3236,27 +3216,27 @@
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B77" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="C77" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D77" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>12</v>
@@ -3264,10 +3244,10 @@
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B79" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>150</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>15</v>
@@ -3278,27 +3258,27 @@
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>12</v>
@@ -3306,13 +3286,13 @@
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>12</v>
@@ -3320,10 +3300,10 @@
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>8</v>
@@ -3334,13 +3314,13 @@
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B84" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B84" s="1" t="s">
-        <v>155</v>
-      </c>
       <c r="C84" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>12</v>
@@ -3348,13 +3328,13 @@
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B85" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B85" s="1" t="s">
-        <v>157</v>
-      </c>
       <c r="C85" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>12</v>
@@ -3362,10 +3342,10 @@
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B86" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>159</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>22</v>
@@ -3379,13 +3359,13 @@
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C87" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>161</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>23</v>
@@ -3393,13 +3373,13 @@
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B88" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B88" s="1" t="s">
-        <v>163</v>
-      </c>
       <c r="C88" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>12</v>
@@ -3407,10 +3387,10 @@
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B89" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>165</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>15</v>
@@ -3421,13 +3401,13 @@
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B90" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B90" s="1" t="s">
-        <v>167</v>
-      </c>
       <c r="C90" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>12</v>
@@ -3435,13 +3415,13 @@
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B91" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="C91" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>170</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>9</v>
@@ -3450,13 +3430,13 @@
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B92" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B92" s="1" t="s">
-        <v>172</v>
-      </c>
       <c r="C92" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>9</v>
@@ -3464,13 +3444,13 @@
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B93" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B93" s="1" t="s">
-        <v>174</v>
-      </c>
       <c r="C93" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>12</v>
@@ -3478,10 +3458,10 @@
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B94" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>176</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>15</v>
@@ -3492,10 +3472,10 @@
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>15</v>
@@ -3506,13 +3486,13 @@
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B96" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="B96" s="5" t="s">
-        <v>179</v>
-      </c>
       <c r="C96" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>9</v>
@@ -3520,10 +3500,10 @@
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B97" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>181</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>22</v>
@@ -3534,10 +3514,10 @@
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B98" s="5" t="s">
         <v>182</v>
-      </c>
-      <c r="B98" s="5" t="s">
-        <v>183</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>22</v>
@@ -3548,10 +3528,10 @@
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>8</v>
@@ -3562,10 +3542,10 @@
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B100" s="1" t="s">
         <v>185</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>186</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>22</v>
@@ -3576,10 +3556,10 @@
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B101" s="1" t="s">
         <v>187</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>15</v>
@@ -3590,10 +3570,10 @@
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>15</v>
@@ -3604,13 +3584,13 @@
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B103" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B103" s="1" t="s">
-        <v>191</v>
-      </c>
       <c r="C103" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>9</v>
@@ -3618,13 +3598,13 @@
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>12</v>
@@ -3632,13 +3612,13 @@
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B105" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B105" s="1" t="s">
-        <v>194</v>
-      </c>
       <c r="C105" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>9</v>
@@ -3646,10 +3626,10 @@
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B106" s="1" t="s">
         <v>195</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>15</v>
@@ -3660,13 +3640,13 @@
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>9</v>
@@ -3674,10 +3654,10 @@
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>22</v>
@@ -3686,15 +3666,15 @@
         <v>23</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>22</v>
@@ -3705,13 +3685,13 @@
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B110" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="C110" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>202</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>9</v>
@@ -3719,24 +3699,24 @@
     </row>
     <row r="111" customFormat="false" ht="23.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B111" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="B111" s="1" t="s">
-        <v>204</v>
-      </c>
       <c r="C111" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>22</v>
@@ -3747,10 +3727,10 @@
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>22</v>
@@ -3761,13 +3741,13 @@
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>9</v>
@@ -3775,10 +3755,10 @@
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B115" s="5" t="s">
         <v>208</v>
-      </c>
-      <c r="B115" s="5" t="s">
-        <v>209</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>22</v>
@@ -3789,13 +3769,13 @@
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B116" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B116" s="1" t="s">
+      <c r="C116" s="2" t="s">
         <v>211</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>212</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>9</v>
@@ -3803,10 +3783,10 @@
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B117" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>214</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>22</v>
@@ -3817,10 +3797,10 @@
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B118" s="1" t="s">
         <v>215</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>216</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>15</v>
@@ -3831,10 +3811,10 @@
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B119" s="5" t="s">
         <v>217</v>
-      </c>
-      <c r="B119" s="5" t="s">
-        <v>218</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>22</v>
@@ -3845,13 +3825,13 @@
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B120" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="B120" s="1" t="s">
-        <v>220</v>
-      </c>
       <c r="C120" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>9</v>
@@ -3859,10 +3839,10 @@
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>15</v>
@@ -3873,10 +3853,10 @@
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B122" s="1" t="s">
         <v>222</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>223</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>22</v>
@@ -3887,10 +3867,10 @@
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>8</v>
@@ -3901,10 +3881,10 @@
     </row>
     <row r="124" customFormat="false" ht="23.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B124" s="1" t="s">
         <v>225</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>226</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>15</v>
@@ -3915,13 +3895,13 @@
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B125" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="B125" s="1" t="s">
-        <v>228</v>
-      </c>
       <c r="C125" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>12</v>
@@ -3929,10 +3909,10 @@
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>8</v>
@@ -3941,18 +3921,18 @@
         <v>12</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B127" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="B127" s="1" t="s">
+      <c r="C127" s="2" t="s">
         <v>231</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>232</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>23</v>
@@ -3960,13 +3940,13 @@
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B128" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="B128" s="1" t="s">
+      <c r="C128" s="2" t="s">
         <v>234</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>235</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>9</v>
@@ -3974,10 +3954,10 @@
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B129" s="1" t="s">
         <v>236</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>237</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>8</v>
@@ -3988,38 +3968,38 @@
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B130" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="B130" s="1" t="s">
-        <v>239</v>
-      </c>
       <c r="C130" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>15</v>
@@ -4030,10 +4010,10 @@
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>15</v>
@@ -4044,13 +4024,13 @@
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B134" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="B134" s="1" t="s">
-        <v>242</v>
-      </c>
       <c r="C134" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>9</v>
@@ -4058,10 +4038,10 @@
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B135" s="1" t="s">
         <v>243</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>244</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>15</v>
@@ -4072,7 +4052,7 @@
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>21</v>
@@ -4086,10 +4066,10 @@
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B137" s="1" t="s">
         <v>245</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>246</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>22</v>
@@ -4100,10 +4080,10 @@
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>15</v>
@@ -4114,10 +4094,10 @@
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B139" s="1" t="s">
         <v>248</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>249</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>22</v>
@@ -4128,10 +4108,10 @@
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B140" s="1" t="s">
         <v>250</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>251</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>22</v>
@@ -4142,10 +4122,10 @@
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B141" s="1" t="s">
         <v>252</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>253</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>15</v>
@@ -4156,13 +4136,13 @@
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B142" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="B142" s="1" t="s">
-        <v>255</v>
-      </c>
       <c r="C142" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D142" s="2" t="s">
         <v>12</v>
@@ -4173,10 +4153,10 @@
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B143" s="1" t="s">
         <v>256</v>
-      </c>
-      <c r="B143" s="1" t="s">
-        <v>257</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>15</v>
@@ -4187,13 +4167,13 @@
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D144" s="2" t="s">
         <v>12</v>
@@ -4201,13 +4181,13 @@
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B145" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="B145" s="1" t="s">
+      <c r="C145" s="2" t="s">
         <v>260</v>
-      </c>
-      <c r="C145" s="2" t="s">
-        <v>261</v>
       </c>
       <c r="D145" s="2" t="s">
         <v>9</v>
@@ -4215,13 +4195,13 @@
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B146" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="B146" s="1" t="s">
-        <v>263</v>
-      </c>
       <c r="C146" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>12</v>
@@ -4229,10 +4209,10 @@
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>15</v>
@@ -4243,13 +4223,13 @@
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D148" s="2" t="s">
         <v>9</v>
@@ -4257,10 +4237,10 @@
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B149" s="1" t="s">
         <v>266</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>267</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>8</v>
@@ -4271,24 +4251,24 @@
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B150" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="B150" s="1" t="s">
+      <c r="C150" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="C150" s="2" t="s">
+      <c r="D150" s="2" t="s">
         <v>270</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B151" s="1" t="s">
         <v>272</v>
-      </c>
-      <c r="B151" s="1" t="s">
-        <v>273</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>15</v>
@@ -4299,10 +4279,10 @@
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B152" s="1" t="s">
         <v>274</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>275</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>22</v>
@@ -4313,10 +4293,10 @@
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B153" s="1" t="s">
         <v>276</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>277</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>15</v>
@@ -4327,10 +4307,10 @@
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B154" s="5" t="s">
         <v>278</v>
-      </c>
-      <c r="B154" s="5" t="s">
-        <v>279</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>22</v>
@@ -4341,13 +4321,13 @@
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B155" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="B155" s="1" t="s">
-        <v>281</v>
-      </c>
       <c r="C155" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D155" s="2" t="s">
         <v>12</v>
@@ -4355,13 +4335,13 @@
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B156" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="B156" s="1" t="s">
-        <v>283</v>
-      </c>
       <c r="C156" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D156" s="2" t="s">
         <v>12</v>
@@ -4369,10 +4349,10 @@
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>8</v>
@@ -4383,13 +4363,13 @@
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D158" s="2" t="s">
         <v>9</v>
@@ -4397,30 +4377,30 @@
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B159" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="B159" s="1" t="s">
+      <c r="C159" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E159" s="2" t="s">
         <v>287</v>
-      </c>
-      <c r="C159" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D159" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E159" s="2" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D160" s="2" t="s">
         <v>9</v>
@@ -4428,10 +4408,10 @@
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B161" s="1" t="s">
         <v>290</v>
-      </c>
-      <c r="B161" s="1" t="s">
-        <v>291</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>15</v>
@@ -4442,10 +4422,10 @@
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B162" s="5" t="s">
         <v>292</v>
-      </c>
-      <c r="B162" s="5" t="s">
-        <v>293</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>22</v>
@@ -4456,10 +4436,10 @@
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B163" s="5" t="s">
         <v>294</v>
-      </c>
-      <c r="B163" s="5" t="s">
-        <v>295</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>22</v>
@@ -4470,13 +4450,13 @@
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D164" s="2" t="s">
         <v>9</v>
@@ -4484,13 +4464,13 @@
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B165" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="B165" s="1" t="s">
-        <v>298</v>
-      </c>
       <c r="C165" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D165" s="2" t="s">
         <v>9</v>
@@ -4498,13 +4478,13 @@
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D166" s="2" t="s">
         <v>12</v>
@@ -4512,10 +4492,10 @@
     </row>
     <row r="167" customFormat="false" ht="23.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B167" s="1" t="s">
         <v>300</v>
-      </c>
-      <c r="B167" s="1" t="s">
-        <v>301</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>15</v>
@@ -4526,10 +4506,10 @@
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>22</v>
@@ -4540,24 +4520,24 @@
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>22</v>
@@ -4571,10 +4551,10 @@
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>8</v>
@@ -4585,13 +4565,13 @@
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D172" s="2" t="s">
         <v>9</v>
@@ -4599,10 +4579,10 @@
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>15</v>
@@ -4613,13 +4593,13 @@
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D174" s="2" t="s">
         <v>9</v>
@@ -4627,10 +4607,10 @@
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>8</v>
@@ -4641,27 +4621,27 @@
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D176" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>22</v>
@@ -4672,10 +4652,10 @@
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B178" s="1" t="s">
         <v>312</v>
-      </c>
-      <c r="B178" s="1" t="s">
-        <v>313</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>15</v>
@@ -4686,13 +4666,13 @@
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B179" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="B179" s="1" t="s">
-        <v>315</v>
-      </c>
       <c r="C179" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D179" s="2" t="s">
         <v>9</v>
@@ -4700,13 +4680,13 @@
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D180" s="2" t="s">
         <v>12</v>
@@ -4714,10 +4694,10 @@
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>15</v>
@@ -4728,10 +4708,10 @@
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>22</v>
@@ -4742,13 +4722,13 @@
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D183" s="2" t="s">
         <v>9</v>
@@ -4756,13 +4736,13 @@
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C184" s="2" t="s">
         <v>318</v>
-      </c>
-      <c r="B184" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C184" s="2" t="s">
-        <v>319</v>
       </c>
       <c r="D184" s="2" t="s">
         <v>9</v>
@@ -4770,10 +4750,10 @@
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B185" s="1" t="s">
         <v>320</v>
-      </c>
-      <c r="B185" s="1" t="s">
-        <v>321</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>22</v>
@@ -4788,13 +4768,13 @@
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D186" s="2" t="s">
         <v>9</v>
@@ -4802,10 +4782,10 @@
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B187" s="1" t="s">
         <v>323</v>
-      </c>
-      <c r="B187" s="1" t="s">
-        <v>324</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>22</v>
@@ -4816,10 +4796,10 @@
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>15</v>
@@ -4830,10 +4810,10 @@
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>8</v>
@@ -4842,15 +4822,15 @@
         <v>12</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>22</v>
@@ -4861,13 +4841,13 @@
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D191" s="2" t="s">
         <v>12</v>
@@ -4875,10 +4855,10 @@
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B192" s="1" t="s">
         <v>329</v>
-      </c>
-      <c r="B192" s="1" t="s">
-        <v>330</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>15</v>
@@ -4889,13 +4869,13 @@
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D193" s="2" t="s">
         <v>12</v>
@@ -4903,13 +4883,13 @@
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B194" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="B194" s="1" t="s">
-        <v>332</v>
-      </c>
       <c r="C194" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D194" s="2" t="s">
         <v>12</v>
@@ -4917,13 +4897,13 @@
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D195" s="2" t="s">
         <v>12</v>
@@ -4931,13 +4911,13 @@
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B196" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="B196" s="1" t="s">
-        <v>335</v>
-      </c>
       <c r="C196" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D196" s="2" t="s">
         <v>12</v>
@@ -4945,13 +4925,13 @@
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D197" s="2" t="s">
         <v>12</v>
@@ -4959,10 +4939,10 @@
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B198" s="1" t="s">
         <v>337</v>
-      </c>
-      <c r="B198" s="1" t="s">
-        <v>338</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>22</v>
@@ -4973,13 +4953,13 @@
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B199" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="B199" s="1" t="s">
-        <v>340</v>
-      </c>
       <c r="C199" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D199" s="2" t="s">
         <v>12</v>
@@ -4987,10 +4967,10 @@
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>15</v>
@@ -5001,10 +4981,10 @@
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>22</v>
@@ -5015,10 +4995,10 @@
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>22</v>
@@ -5029,13 +5009,13 @@
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B203" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="B203" s="5" t="s">
-        <v>345</v>
-      </c>
       <c r="C203" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D203" s="2" t="s">
         <v>12</v>
@@ -5043,13 +5023,13 @@
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B204" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="B204" s="1" t="s">
-        <v>347</v>
-      </c>
       <c r="C204" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D204" s="2" t="s">
         <v>9</v>
@@ -5057,10 +5037,10 @@
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B205" s="1" t="s">
         <v>348</v>
-      </c>
-      <c r="B205" s="1" t="s">
-        <v>349</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>15</v>
@@ -5071,13 +5051,13 @@
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B206" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="B206" s="1" t="s">
-        <v>351</v>
-      </c>
       <c r="C206" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D206" s="2" t="s">
         <v>9</v>
@@ -5085,13 +5065,13 @@
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B207" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D207" s="2" t="s">
         <v>9</v>
@@ -5099,13 +5079,13 @@
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D208" s="2" t="s">
         <v>9</v>
@@ -5113,10 +5093,10 @@
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B209" s="1" t="s">
         <v>354</v>
-      </c>
-      <c r="B209" s="1" t="s">
-        <v>355</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>15</v>
@@ -5130,10 +5110,10 @@
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>15</v>
@@ -5144,7 +5124,7 @@
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B211" s="1" t="s">
         <v>21</v>
@@ -5153,18 +5133,18 @@
         <v>22</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D212" s="2" t="s">
         <v>9</v>
@@ -5172,13 +5152,13 @@
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D213" s="2" t="s">
         <v>9</v>
@@ -5186,10 +5166,10 @@
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>8</v>
@@ -5200,30 +5180,30 @@
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D215" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B216" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="B216" s="5" t="s">
-        <v>363</v>
-      </c>
       <c r="C216" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D216" s="2" t="s">
         <v>9</v>
@@ -5231,10 +5211,10 @@
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>15</v>
@@ -5245,13 +5225,13 @@
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D218" s="2" t="s">
         <v>9</v>
@@ -5259,7 +5239,7 @@
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B219" s="1" t="s">
         <v>21</v>
@@ -5273,10 +5253,10 @@
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>22</v>
@@ -5287,10 +5267,10 @@
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B221" s="1" t="s">
         <v>366</v>
-      </c>
-      <c r="B221" s="1" t="s">
-        <v>367</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>8</v>
@@ -5301,10 +5281,10 @@
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>22</v>
@@ -5315,10 +5295,10 @@
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B223" s="1" t="s">
         <v>369</v>
-      </c>
-      <c r="B223" s="1" t="s">
-        <v>370</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>22</v>
@@ -5329,10 +5309,10 @@
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>22</v>
@@ -5346,13 +5326,13 @@
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D225" s="2" t="s">
         <v>12</v>
@@ -5360,30 +5340,30 @@
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D226" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D227" s="2" t="s">
         <v>9</v>
@@ -5391,10 +5371,10 @@
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B228" s="1" t="s">
         <v>375</v>
-      </c>
-      <c r="B228" s="1" t="s">
-        <v>376</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>15</v>
@@ -5405,13 +5385,13 @@
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B229" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="B229" s="1" t="s">
-        <v>378</v>
-      </c>
       <c r="C229" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D229" s="2" t="s">
         <v>12</v>
@@ -5419,10 +5399,10 @@
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>8</v>
@@ -5431,15 +5411,15 @@
         <v>12</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B231" s="1" t="s">
         <v>380</v>
-      </c>
-      <c r="B231" s="1" t="s">
-        <v>381</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>22</v>
@@ -5451,10 +5431,10 @@
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>15</v>
@@ -5465,10 +5445,10 @@
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>8</v>
@@ -5479,10 +5459,10 @@
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>15</v>
@@ -5493,10 +5473,10 @@
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B235" s="1" t="s">
         <v>385</v>
-      </c>
-      <c r="B235" s="1" t="s">
-        <v>386</v>
       </c>
       <c r="C235" s="2" t="s">
         <v>22</v>
@@ -5507,10 +5487,10 @@
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B236" s="5" t="s">
         <v>387</v>
-      </c>
-      <c r="B236" s="5" t="s">
-        <v>388</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>15</v>
@@ -5522,13 +5502,13 @@
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B237" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="B237" s="1" t="s">
-        <v>390</v>
-      </c>
       <c r="C237" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D237" s="2" t="s">
         <v>9</v>
@@ -5536,10 +5516,10 @@
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>22</v>
@@ -5550,24 +5530,24 @@
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>15</v>
@@ -5581,24 +5561,24 @@
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B242" s="1" t="s">
         <v>395</v>
-      </c>
-      <c r="B242" s="1" t="s">
-        <v>396</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>15</v>
@@ -5609,10 +5589,10 @@
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B243" s="1" t="s">
         <v>397</v>
-      </c>
-      <c r="B243" s="1" t="s">
-        <v>398</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>22</v>
@@ -5623,27 +5603,27 @@
     </row>
     <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D245" s="2" t="s">
         <v>9</v>
@@ -5651,7 +5631,7 @@
     </row>
     <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B246" s="1" t="s">
         <v>25</v>
@@ -5665,10 +5645,10 @@
     </row>
     <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>22</v>
@@ -5682,10 +5662,10 @@
     </row>
     <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>22</v>
@@ -5696,10 +5676,10 @@
     </row>
     <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C249" s="2" t="s">
         <v>15</v>
@@ -5708,15 +5688,15 @@
         <v>9</v>
       </c>
       <c r="E249" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B250" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C250" s="2" t="s">
         <v>22</v>
@@ -5725,15 +5705,15 @@
         <v>23</v>
       </c>
       <c r="E250" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="23.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B251" s="1" t="s">
         <v>405</v>
-      </c>
-      <c r="B251" s="1" t="s">
-        <v>406</v>
       </c>
       <c r="C251" s="2" t="s">
         <v>22</v>
@@ -5747,10 +5727,10 @@
     </row>
     <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C252" s="2" t="s">
         <v>22</v>
@@ -5761,41 +5741,41 @@
     </row>
     <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B253" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D253" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E253" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B254" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="B254" s="1" t="s">
-        <v>411</v>
-      </c>
       <c r="C254" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C255" s="2" t="s">
         <v>22</v>
@@ -5806,13 +5786,13 @@
     </row>
     <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B256" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="B256" s="1" t="s">
-        <v>413</v>
-      </c>
       <c r="C256" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D256" s="2" t="s">
         <v>9</v>
@@ -5820,10 +5800,10 @@
     </row>
     <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C257" s="2" t="s">
         <v>15</v>
@@ -5834,10 +5814,10 @@
     </row>
     <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C258" s="2" t="s">
         <v>15</v>
@@ -5848,13 +5828,13 @@
     </row>
     <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B259" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D259" s="2" t="s">
         <v>12</v>
@@ -5862,13 +5842,13 @@
     </row>
     <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D260" s="2" t="s">
         <v>9</v>
@@ -5876,10 +5856,10 @@
     </row>
     <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>15</v>
@@ -5890,10 +5870,10 @@
     </row>
     <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="B262" s="5" t="s">
         <v>417</v>
-      </c>
-      <c r="B262" s="5" t="s">
-        <v>418</v>
       </c>
       <c r="C262" s="2" t="s">
         <v>15</v>
@@ -5904,10 +5884,10 @@
     </row>
     <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>22</v>
@@ -5918,7 +5898,7 @@
     </row>
     <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B264" s="1" t="s">
         <v>21</v>
@@ -5932,10 +5912,10 @@
     </row>
     <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>8</v>
@@ -5946,10 +5926,10 @@
     </row>
     <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>15</v>
@@ -5960,10 +5940,10 @@
     </row>
     <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>15</v>
@@ -5974,24 +5954,24 @@
     </row>
     <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>15</v>
@@ -6002,13 +5982,13 @@
     </row>
     <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B270" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="B270" s="1" t="s">
-        <v>427</v>
-      </c>
       <c r="C270" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D270" s="2" t="s">
         <v>12</v>
@@ -6016,10 +5996,10 @@
     </row>
     <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B271" s="1" t="s">
         <v>428</v>
-      </c>
-      <c r="B271" s="1" t="s">
-        <v>429</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>15</v>
@@ -6030,10 +6010,10 @@
     </row>
     <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>8</v>
@@ -6042,18 +6022,18 @@
         <v>12</v>
       </c>
       <c r="E272" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D273" s="2" t="s">
         <v>23</v>
@@ -6061,13 +6041,13 @@
     </row>
     <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="B274" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="B274" s="1" t="s">
-        <v>433</v>
-      </c>
       <c r="C274" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D274" s="2" t="s">
         <v>12</v>
@@ -6075,10 +6055,10 @@
     </row>
     <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="B275" s="1" t="s">
         <v>434</v>
-      </c>
-      <c r="B275" s="1" t="s">
-        <v>435</v>
       </c>
       <c r="C275" s="2" t="s">
         <v>15</v>
@@ -6089,10 +6069,10 @@
     </row>
     <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B276" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>22</v>
@@ -6103,10 +6083,10 @@
     </row>
     <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C277" s="2" t="s">
         <v>22</v>
@@ -6117,13 +6097,13 @@
     </row>
     <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B278" s="5" t="s">
         <v>438</v>
       </c>
-      <c r="B278" s="5" t="s">
-        <v>439</v>
-      </c>
       <c r="C278" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D278" s="2" t="s">
         <v>23</v>
@@ -6131,13 +6111,13 @@
     </row>
     <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B279" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="B279" s="1" t="s">
-        <v>441</v>
-      </c>
       <c r="C279" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D279" s="2" t="s">
         <v>12</v>
@@ -6145,10 +6125,10 @@
     </row>
     <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C280" s="2" t="s">
         <v>15</v>
@@ -6159,10 +6139,10 @@
     </row>
     <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B281" s="1" t="s">
         <v>443</v>
-      </c>
-      <c r="B281" s="1" t="s">
-        <v>444</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>8</v>
@@ -6171,15 +6151,15 @@
         <v>9</v>
       </c>
       <c r="E281" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C282" s="2" t="s">
         <v>22</v>
@@ -6190,21 +6170,21 @@
     </row>
     <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C283" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D283" s="2" t="s">
         <v>446</v>
-      </c>
-      <c r="B283" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C283" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D283" s="2" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B284" s="1" t="s">
         <v>21</v>
@@ -6218,10 +6198,10 @@
     </row>
     <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C285" s="2" t="s">
         <v>22</v>
@@ -6232,41 +6212,41 @@
     </row>
     <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D286" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E286" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C287" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C288" s="2" t="s">
         <v>22</v>
@@ -6277,24 +6257,24 @@
     </row>
     <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C289" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D289" s="2" t="s">
         <v>453</v>
-      </c>
-      <c r="B289" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C289" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D289" s="2" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="B290" s="1" t="s">
         <v>455</v>
-      </c>
-      <c r="B290" s="1" t="s">
-        <v>456</v>
       </c>
       <c r="C290" s="2" t="s">
         <v>15</v>
@@ -6305,10 +6285,10 @@
     </row>
     <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C291" s="2" t="s">
         <v>22</v>
@@ -6319,13 +6299,13 @@
     </row>
     <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="B292" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="B292" s="1" t="s">
+      <c r="C292" s="2" t="s">
         <v>459</v>
-      </c>
-      <c r="C292" s="2" t="s">
-        <v>460</v>
       </c>
       <c r="D292" s="2" t="s">
         <v>9</v>
@@ -6333,13 +6313,13 @@
     </row>
     <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D293" s="2" t="s">
         <v>12</v>
@@ -6347,13 +6327,13 @@
     </row>
     <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D294" s="2" t="s">
         <v>9</v>
@@ -6361,10 +6341,10 @@
     </row>
     <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C295" s="2" t="s">
         <v>15</v>
@@ -6375,10 +6355,10 @@
     </row>
     <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C296" s="2" t="s">
         <v>22</v>
@@ -6389,13 +6369,13 @@
     </row>
     <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D297" s="2" t="s">
         <v>9</v>
@@ -6403,10 +6383,10 @@
     </row>
     <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C298" s="2" t="s">
         <v>15</v>
@@ -6417,13 +6397,13 @@
     </row>
     <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D299" s="2" t="s">
         <v>23</v>
@@ -6431,10 +6411,10 @@
     </row>
     <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C300" s="2" t="s">
         <v>22</v>
@@ -6445,24 +6425,24 @@
     </row>
     <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C301" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D301" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C302" s="2" t="s">
         <v>15</v>
@@ -6473,13 +6453,13 @@
     </row>
     <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="B303" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="B303" s="1" t="s">
-        <v>472</v>
-      </c>
       <c r="C303" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D303" s="2" t="s">
         <v>9</v>
@@ -6487,13 +6467,13 @@
     </row>
     <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D304" s="2" t="s">
         <v>12</v>
@@ -6501,10 +6481,10 @@
     </row>
     <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C305" s="2" t="s">
         <v>15</v>
@@ -6515,13 +6495,13 @@
     </row>
     <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="B306" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="B306" s="1" t="s">
-        <v>476</v>
-      </c>
       <c r="C306" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D306" s="2" t="s">
         <v>9</v>
@@ -6529,10 +6509,10 @@
     </row>
     <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C307" s="2" t="s">
         <v>22</v>
@@ -6543,10 +6523,10 @@
     </row>
     <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C308" s="2" t="s">
         <v>22</v>
@@ -6557,10 +6537,10 @@
     </row>
     <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="B309" s="1" t="s">
         <v>479</v>
-      </c>
-      <c r="B309" s="1" t="s">
-        <v>480</v>
       </c>
       <c r="C309" s="2" t="s">
         <v>22</v>
@@ -6571,13 +6551,13 @@
     </row>
     <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="B310" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="B310" s="5" t="s">
-        <v>482</v>
-      </c>
       <c r="C310" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D310" s="2" t="s">
         <v>9</v>
@@ -6585,13 +6565,13 @@
     </row>
     <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D311" s="2" t="s">
         <v>23</v>
@@ -6599,10 +6579,10 @@
     </row>
     <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C312" s="2" t="s">
         <v>22</v>
@@ -6613,13 +6593,13 @@
     </row>
     <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B313" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="B313" s="1" t="s">
-        <v>486</v>
-      </c>
       <c r="C313" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D313" s="2" t="s">
         <v>12</v>
@@ -6627,10 +6607,10 @@
     </row>
     <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="B314" s="5" t="s">
         <v>487</v>
-      </c>
-      <c r="B314" s="5" t="s">
-        <v>488</v>
       </c>
       <c r="C314" s="2" t="s">
         <v>15</v>
@@ -6641,10 +6621,10 @@
     </row>
     <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C315" s="2" t="s">
         <v>22</v>
@@ -6655,10 +6635,10 @@
     </row>
     <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C316" s="2" t="s">
         <v>22</v>
@@ -6669,13 +6649,13 @@
     </row>
     <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D317" s="2" t="s">
         <v>9</v>
@@ -6686,13 +6666,13 @@
     </row>
     <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D318" s="2" t="s">
         <v>9</v>
@@ -6700,10 +6680,10 @@
     </row>
     <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C319" s="2" t="s">
         <v>15</v>
@@ -6714,10 +6694,10 @@
     </row>
     <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C320" s="2" t="s">
         <v>15</v>
@@ -6728,10 +6708,10 @@
     </row>
     <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C321" s="2" t="s">
         <v>22</v>
@@ -6742,10 +6722,10 @@
     </row>
     <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C322" s="2" t="s">
         <v>15</v>
@@ -6756,10 +6736,10 @@
     </row>
     <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="B323" s="5" t="s">
         <v>497</v>
-      </c>
-      <c r="B323" s="5" t="s">
-        <v>498</v>
       </c>
       <c r="C323" s="2" t="s">
         <v>15</v>
@@ -6770,13 +6750,13 @@
     </row>
     <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C324" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D324" s="2" t="s">
         <v>9</v>
@@ -6784,13 +6764,13 @@
     </row>
     <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="B325" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="B325" s="1" t="s">
-        <v>501</v>
-      </c>
       <c r="C325" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D325" s="2" t="s">
         <v>23</v>
@@ -6798,10 +6778,10 @@
     </row>
     <row r="326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C326" s="2" t="s">
         <v>15</v>
@@ -6812,10 +6792,10 @@
     </row>
     <row r="327" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="B327" s="1" t="s">
         <v>502</v>
-      </c>
-      <c r="B327" s="1" t="s">
-        <v>503</v>
       </c>
       <c r="C327" s="2" t="s">
         <v>22</v>
@@ -6826,10 +6806,10 @@
     </row>
     <row r="328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B328" s="1" t="s">
         <v>504</v>
-      </c>
-      <c r="B328" s="1" t="s">
-        <v>505</v>
       </c>
       <c r="C328" s="2" t="s">
         <v>15</v>
@@ -6840,10 +6820,10 @@
     </row>
     <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C329" s="2" t="s">
         <v>22</v>
@@ -6854,13 +6834,13 @@
     </row>
     <row r="330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C330" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D330" s="2" t="s">
         <v>23</v>
@@ -6868,10 +6848,10 @@
     </row>
     <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C331" s="2" t="s">
         <v>22</v>
@@ -6882,11 +6862,11 @@
     </row>
     <row r="332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="B332" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="B332" s="1" t="s">
-        <v>510</v>
-      </c>
       <c r="C332" s="2" t="s">
         <v>22</v>
       </c>
@@ -6894,18 +6874,18 @@
         <v>23</v>
       </c>
       <c r="E332" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C333" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D333" s="2" t="s">
         <v>9</v>
@@ -6913,13 +6893,13 @@
     </row>
     <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="B334" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="B334" s="1" t="s">
-        <v>513</v>
-      </c>
       <c r="C334" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D334" s="2" t="s">
         <v>12</v>
@@ -6927,13 +6907,13 @@
     </row>
     <row r="335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C335" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D335" s="2" t="s">
         <v>12</v>
@@ -6941,10 +6921,10 @@
     </row>
     <row r="336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C336" s="2" t="s">
         <v>8</v>
@@ -6955,10 +6935,10 @@
     </row>
     <row r="337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="B337" s="1" t="s">
         <v>516</v>
-      </c>
-      <c r="B337" s="1" t="s">
-        <v>517</v>
       </c>
       <c r="C337" s="2" t="s">
         <v>22</v>
@@ -6972,13 +6952,13 @@
     </row>
     <row r="338" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B338" s="5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C338" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D338" s="2" t="s">
         <v>9</v>
@@ -6986,10 +6966,10 @@
     </row>
     <row r="339" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="B339" s="1" t="s">
         <v>519</v>
-      </c>
-      <c r="B339" s="1" t="s">
-        <v>520</v>
       </c>
       <c r="C339" s="2" t="s">
         <v>15</v>
@@ -7000,13 +6980,13 @@
     </row>
     <row r="340" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="B340" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="B340" s="1" t="s">
-        <v>522</v>
-      </c>
       <c r="C340" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D340" s="2" t="s">
         <v>9</v>
@@ -7014,13 +6994,13 @@
     </row>
     <row r="341" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C341" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D341" s="2" t="s">
         <v>9</v>
@@ -7028,10 +7008,10 @@
     </row>
     <row r="342" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C342" s="2" t="s">
         <v>15</v>
@@ -7042,10 +7022,10 @@
     </row>
     <row r="343" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="B343" s="1" t="s">
         <v>524</v>
-      </c>
-      <c r="B343" s="1" t="s">
-        <v>525</v>
       </c>
       <c r="C343" s="2" t="s">
         <v>22</v>
@@ -7056,13 +7036,13 @@
     </row>
     <row r="344" customFormat="false" ht="23.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B344" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="B344" s="1" t="s">
-        <v>527</v>
-      </c>
       <c r="C344" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D344" s="2" t="s">
         <v>12</v>
@@ -7070,10 +7050,10 @@
     </row>
     <row r="345" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C345" s="2" t="s">
         <v>15</v>
@@ -7084,10 +7064,10 @@
     </row>
     <row r="346" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="B346" s="1" t="s">
         <v>529</v>
-      </c>
-      <c r="B346" s="1" t="s">
-        <v>530</v>
       </c>
       <c r="C346" s="2" t="s">
         <v>8</v>
@@ -7096,18 +7076,18 @@
         <v>9</v>
       </c>
       <c r="E346" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C347" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D347" s="2" t="s">
         <v>12</v>
@@ -7115,10 +7095,10 @@
     </row>
     <row r="348" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="B348" s="1" t="s">
         <v>532</v>
-      </c>
-      <c r="B348" s="1" t="s">
-        <v>533</v>
       </c>
       <c r="C348" s="2" t="s">
         <v>15</v>
@@ -7129,10 +7109,10 @@
     </row>
     <row r="349" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C349" s="2" t="s">
         <v>8</v>
@@ -7143,10 +7123,10 @@
     </row>
     <row r="350" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="B350" s="1" t="s">
         <v>535</v>
-      </c>
-      <c r="B350" s="1" t="s">
-        <v>536</v>
       </c>
       <c r="C350" s="2" t="s">
         <v>15</v>
@@ -7157,10 +7137,10 @@
     </row>
     <row r="351" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="B351" s="1" t="s">
         <v>537</v>
-      </c>
-      <c r="B351" s="1" t="s">
-        <v>538</v>
       </c>
       <c r="C351" s="2" t="s">
         <v>8</v>
@@ -7171,13 +7151,13 @@
     </row>
     <row r="352" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="5" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C352" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D352" s="2" t="s">
         <v>9</v>
@@ -7185,10 +7165,10 @@
     </row>
     <row r="353" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C353" s="2" t="s">
         <v>8</v>
@@ -7197,18 +7177,18 @@
         <v>12</v>
       </c>
       <c r="E353" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="B354" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="B354" s="1" t="s">
-        <v>542</v>
-      </c>
       <c r="C354" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D354" s="2" t="s">
         <v>23</v>
@@ -7216,10 +7196,10 @@
     </row>
     <row r="355" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C355" s="2" t="s">
         <v>15</v>
@@ -7230,13 +7210,13 @@
     </row>
     <row r="356" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C356" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D356" s="2" t="s">
         <v>9</v>
@@ -7247,7 +7227,7 @@
     </row>
     <row r="357" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B357" s="5" t="s">
         <v>14</v>
@@ -7261,10 +7241,10 @@
     </row>
     <row r="358" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="B358" s="1" t="s">
         <v>546</v>
-      </c>
-      <c r="B358" s="1" t="s">
-        <v>547</v>
       </c>
       <c r="C358" s="2" t="s">
         <v>15</v>
@@ -7276,10 +7256,10 @@
     </row>
     <row r="359" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="B359" s="1" t="s">
         <v>548</v>
-      </c>
-      <c r="B359" s="1" t="s">
-        <v>549</v>
       </c>
       <c r="C359" s="2" t="s">
         <v>22</v>
@@ -7290,10 +7270,10 @@
     </row>
     <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B360" s="5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C360" s="2" t="s">
         <v>15</v>
@@ -7304,13 +7284,13 @@
     </row>
     <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B361" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C361" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D361" s="2" t="s">
         <v>12</v>
@@ -7318,10 +7298,10 @@
     </row>
     <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="B362" s="5" t="s">
         <v>552</v>
-      </c>
-      <c r="B362" s="5" t="s">
-        <v>553</v>
       </c>
       <c r="C362" s="2" t="s">
         <v>22</v>
@@ -7332,10 +7312,10 @@
     </row>
     <row r="363" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C363" s="2" t="s">
         <v>15</v>
@@ -7346,13 +7326,13 @@
     </row>
     <row r="364" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C364" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D364" s="2" t="s">
         <v>9</v>
@@ -7360,24 +7340,24 @@
     </row>
     <row r="365" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="B365" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="B365" s="1" t="s">
-        <v>557</v>
-      </c>
       <c r="C365" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D365" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C366" s="2" t="s">
         <v>15</v>
@@ -7386,18 +7366,18 @@
         <v>9</v>
       </c>
       <c r="E366" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="B367" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="B367" s="1" t="s">
-        <v>560</v>
-      </c>
       <c r="C367" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D367" s="2" t="s">
         <v>9</v>
@@ -7405,10 +7385,10 @@
     </row>
     <row r="368" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="B368" s="1" t="s">
         <v>561</v>
-      </c>
-      <c r="B368" s="1" t="s">
-        <v>562</v>
       </c>
       <c r="C368" s="2" t="s">
         <v>22</v>
@@ -7419,27 +7399,27 @@
     </row>
     <row r="369" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C369" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D369" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E369" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="23.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="B370" s="1" t="s">
         <v>564</v>
-      </c>
-      <c r="B370" s="1" t="s">
-        <v>565</v>
       </c>
       <c r="C370" s="2" t="s">
         <v>22</v>
@@ -7450,27 +7430,27 @@
     </row>
     <row r="371" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C371" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D371" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C372" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D372" s="2" t="s">
         <v>12</v>
@@ -7478,10 +7458,10 @@
     </row>
     <row r="373" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C373" s="2" t="s">
         <v>22</v>
@@ -7492,10 +7472,10 @@
     </row>
     <row r="374" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="B374" s="1" t="s">
         <v>569</v>
-      </c>
-      <c r="B374" s="1" t="s">
-        <v>570</v>
       </c>
       <c r="C374" s="2" t="s">
         <v>22</v>
@@ -7509,13 +7489,13 @@
     </row>
     <row r="375" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="B375" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="B375" s="1" t="s">
-        <v>572</v>
-      </c>
       <c r="C375" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D375" s="2" t="s">
         <v>9</v>
@@ -7526,7 +7506,7 @@
     </row>
     <row r="376" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B376" s="1" t="s">
         <v>21</v>
@@ -7540,7 +7520,7 @@
     </row>
     <row r="377" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B377" s="1" t="s">
         <v>14</v>
@@ -7554,13 +7534,13 @@
     </row>
     <row r="378" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C378" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D378" s="2" t="s">
         <v>12</v>
@@ -7568,13 +7548,13 @@
     </row>
     <row r="379" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C379" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D379" s="2" t="s">
         <v>12</v>
@@ -7582,10 +7562,10 @@
     </row>
     <row r="380" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C380" s="2" t="s">
         <v>15</v>
@@ -7596,10 +7576,10 @@
     </row>
     <row r="381" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C381" s="2" t="s">
         <v>15</v>
@@ -7610,13 +7590,13 @@
     </row>
     <row r="382" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="B382" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="B382" s="1" t="s">
-        <v>578</v>
-      </c>
       <c r="C382" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D382" s="2" t="s">
         <v>12</v>
@@ -7624,7 +7604,7 @@
     </row>
     <row r="383" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B383" s="1" t="s">
         <v>7</v>
@@ -7641,10 +7621,10 @@
     </row>
     <row r="384" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B384" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C384" s="2" t="s">
         <v>22</v>
@@ -7655,13 +7635,13 @@
     </row>
     <row r="385" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="B385" s="1" t="s">
         <v>581</v>
       </c>
-      <c r="B385" s="1" t="s">
-        <v>582</v>
-      </c>
       <c r="C385" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D385" s="2" t="s">
         <v>9</v>
@@ -7669,13 +7649,13 @@
     </row>
     <row r="386" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="B386" s="5" t="s">
         <v>583</v>
       </c>
-      <c r="B386" s="5" t="s">
-        <v>584</v>
-      </c>
       <c r="C386" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D386" s="2" t="s">
         <v>9</v>
@@ -7683,13 +7663,13 @@
     </row>
     <row r="387" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C387" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D387" s="2" t="s">
         <v>9</v>
@@ -7697,38 +7677,38 @@
     </row>
     <row r="388" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C388" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D388" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="389" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C389" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D389" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="390" customFormat="false" ht="23.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="B390" s="1" t="s">
         <v>588</v>
-      </c>
-      <c r="B390" s="1" t="s">
-        <v>589</v>
       </c>
       <c r="C390" s="2" t="s">
         <v>22</v>
@@ -7739,13 +7719,13 @@
     </row>
     <row r="391" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="B391" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="B391" s="1" t="s">
-        <v>591</v>
-      </c>
       <c r="C391" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D391" s="2" t="s">
         <v>12</v>
@@ -7753,13 +7733,13 @@
     </row>
     <row r="392" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B392" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C392" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D392" s="2" t="s">
         <v>12</v>
@@ -7767,13 +7747,13 @@
     </row>
     <row r="393" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="B393" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="B393" s="1" t="s">
-        <v>594</v>
-      </c>
       <c r="C393" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D393" s="2" t="s">
         <v>12</v>
@@ -7781,13 +7761,13 @@
     </row>
     <row r="394" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C394" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D394" s="2" t="s">
         <v>12</v>
@@ -7795,10 +7775,10 @@
     </row>
     <row r="395" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C395" s="2" t="s">
         <v>8</v>
@@ -7809,13 +7789,13 @@
     </row>
     <row r="396" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C396" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D396" s="2" t="s">
         <v>9</v>
@@ -7823,10 +7803,10 @@
     </row>
     <row r="397" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="B397" s="1" t="s">
         <v>597</v>
-      </c>
-      <c r="B397" s="1" t="s">
-        <v>598</v>
       </c>
       <c r="C397" s="2" t="s">
         <v>22</v>
@@ -7840,7 +7820,7 @@
     </row>
     <row r="398" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B398" s="1" t="s">
         <v>21</v>
@@ -7854,10 +7834,10 @@
     </row>
     <row r="399" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="B399" s="1" t="s">
         <v>600</v>
-      </c>
-      <c r="B399" s="1" t="s">
-        <v>601</v>
       </c>
       <c r="C399" s="2" t="s">
         <v>8</v>
@@ -7868,24 +7848,24 @@
     </row>
     <row r="400" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B400" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C400" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D400" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="C400" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D400" s="2" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="401" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C401" s="2" t="s">
         <v>15</v>
@@ -7896,10 +7876,10 @@
     </row>
     <row r="402" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="B402" s="1" t="s">
         <v>604</v>
-      </c>
-      <c r="B402" s="1" t="s">
-        <v>605</v>
       </c>
       <c r="C402" s="2" t="s">
         <v>22</v>
@@ -7910,10 +7890,10 @@
     </row>
     <row r="403" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C403" s="2" t="s">
         <v>15</v>
@@ -7924,38 +7904,38 @@
     </row>
     <row r="404" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="B404" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="B404" s="1" t="s">
-        <v>608</v>
-      </c>
       <c r="C404" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D404" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="405" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="B405" s="5" t="s">
         <v>609</v>
       </c>
-      <c r="B405" s="5" t="s">
-        <v>610</v>
-      </c>
       <c r="C405" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D405" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="406" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C406" s="2" t="s">
         <v>22</v>
@@ -7969,10 +7949,10 @@
     </row>
     <row r="407" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C407" s="2" t="s">
         <v>22</v>
@@ -7986,21 +7966,21 @@
     </row>
     <row r="408" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C408" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D408" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="409" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B409" s="5" t="s">
         <v>14</v>
@@ -8014,10 +7994,10 @@
     </row>
     <row r="410" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C410" s="2" t="s">
         <v>15</v>
@@ -8028,10 +8008,10 @@
     </row>
     <row r="411" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="B411" s="1" t="s">
         <v>616</v>
-      </c>
-      <c r="B411" s="1" t="s">
-        <v>617</v>
       </c>
       <c r="C411" s="2" t="s">
         <v>15</v>
@@ -8042,10 +8022,10 @@
     </row>
     <row r="412" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C412" s="2" t="s">
         <v>8</v>
@@ -8054,15 +8034,15 @@
         <v>12</v>
       </c>
       <c r="E412" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="413" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C413" s="2" t="s">
         <v>22</v>
@@ -8073,10 +8053,10 @@
     </row>
     <row r="414" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="B414" s="1" t="s">
         <v>620</v>
-      </c>
-      <c r="B414" s="1" t="s">
-        <v>621</v>
       </c>
       <c r="C414" s="2" t="s">
         <v>22</v>
@@ -8087,10 +8067,10 @@
     </row>
     <row r="415" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="B415" s="1" t="s">
         <v>622</v>
-      </c>
-      <c r="B415" s="1" t="s">
-        <v>623</v>
       </c>
       <c r="C415" s="2" t="s">
         <v>15</v>
@@ -8101,10 +8081,10 @@
     </row>
     <row r="416" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="B416" s="5" t="s">
         <v>624</v>
-      </c>
-      <c r="B416" s="5" t="s">
-        <v>625</v>
       </c>
       <c r="C416" s="2" t="s">
         <v>15</v>
@@ -8115,10 +8095,10 @@
     </row>
     <row r="417" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C417" s="2" t="s">
         <v>15</v>
@@ -8129,10 +8109,10 @@
     </row>
     <row r="418" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C418" s="2" t="s">
         <v>15</v>
@@ -8143,10 +8123,10 @@
     </row>
     <row r="419" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C419" s="2" t="s">
         <v>8</v>
@@ -8157,10 +8137,10 @@
     </row>
     <row r="420" customFormat="false" ht="23.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C420" s="2" t="s">
         <v>15</v>
@@ -8171,13 +8151,13 @@
     </row>
     <row r="421" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C421" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D421" s="2" t="s">
         <v>9</v>
@@ -8185,13 +8165,13 @@
     </row>
     <row r="422" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C422" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D422" s="2" t="s">
         <v>9</v>
@@ -8199,10 +8179,10 @@
     </row>
     <row r="423" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C423" s="2" t="s">
         <v>22</v>
@@ -8213,13 +8193,13 @@
     </row>
     <row r="424" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="B424" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C424" s="2" t="s">
         <v>633</v>
-      </c>
-      <c r="B424" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C424" s="2" t="s">
-        <v>634</v>
       </c>
       <c r="D424" s="2" t="s">
         <v>23</v>
@@ -8227,27 +8207,27 @@
     </row>
     <row r="425" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="B425" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="B425" s="1" t="s">
+      <c r="C425" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D425" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E425" s="2" t="s">
         <v>636</v>
-      </c>
-      <c r="C425" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D425" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E425" s="2" t="s">
-        <v>637</v>
       </c>
     </row>
     <row r="426" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="B426" s="5" t="s">
         <v>638</v>
-      </c>
-      <c r="B426" s="5" t="s">
-        <v>639</v>
       </c>
       <c r="C426" s="2" t="s">
         <v>15</v>
@@ -8258,24 +8238,24 @@
     </row>
     <row r="427" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="B427" s="1" t="s">
         <v>640</v>
       </c>
-      <c r="B427" s="1" t="s">
-        <v>641</v>
-      </c>
       <c r="C427" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D427" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="428" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="B428" s="1" t="s">
         <v>642</v>
-      </c>
-      <c r="B428" s="1" t="s">
-        <v>643</v>
       </c>
       <c r="C428" s="2" t="s">
         <v>22</v>
@@ -8286,10 +8266,10 @@
     </row>
     <row r="429" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B429" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C429" s="2" t="s">
         <v>22</v>
@@ -8300,10 +8280,10 @@
     </row>
     <row r="430" customFormat="false" ht="23.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="B430" s="1" t="s">
         <v>645</v>
-      </c>
-      <c r="B430" s="1" t="s">
-        <v>646</v>
       </c>
       <c r="C430" s="2" t="s">
         <v>22</v>
@@ -8314,10 +8294,10 @@
     </row>
     <row r="431" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C431" s="2" t="s">
         <v>22</v>
@@ -8328,10 +8308,10 @@
     </row>
     <row r="432" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B432" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C432" s="2" t="s">
         <v>8</v>
@@ -8340,15 +8320,15 @@
         <v>12</v>
       </c>
       <c r="E432" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="433" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B433" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C433" s="2" t="s">
         <v>15</v>
@@ -8359,16 +8339,16 @@
     </row>
     <row r="434" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C434" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D434" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/Collection of Fiddle Tunes.xlsx
+++ b/Collection of Fiddle Tunes.xlsx
@@ -34,7 +34,7 @@
     <t xml:space="preserve">Tuning Notes</t>
   </si>
   <si>
-    <t xml:space="preserve">Cooked [-/+]</t>
+    <t xml:space="preserve">Crooked [-/+]</t>
   </si>
   <si>
     <t xml:space="preserve">Current Irish Repertoire</t>
@@ -2101,8 +2101,8 @@
   </sheetPr>
   <dimension ref="A1:G434"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A412" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A437" activeCellId="0" sqref="A437"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.34375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2110,8 +2110,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="61.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="39.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="11.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="12.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="11.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="2" width="12.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="20.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="81.92"/>
   </cols>
